--- a/02_Stakeholder Register.xlsx
+++ b/02_Stakeholder Register.xlsx
@@ -1599,8 +1599,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF5EC4FAED17FD4FA002B715A7CB3129" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4061a8cd1540211dc7a64fbeb10a931a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xmlns:ns3="92b31412-8c8f-44f1-a883-141cef3f34cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fa8d77d020b26dd482e94517b24c793" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF5EC4FAED17FD4FA002B715A7CB3129" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c6101319a872d716316c7aef0f600e6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xmlns:ns3="92b31412-8c8f-44f1-a883-141cef3f34cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90a05e0497f1fda03ba36f15561e5201" ns2:_="" ns3:_="">
     <xsd:import namespace="92e4be8c-5aca-45ec-8e17-deab1f90d7c8"/>
     <xsd:import namespace="92b31412-8c8f-44f1-a883-141cef3f34cc"/>
     <xsd:element name="properties">
@@ -1621,6 +1621,11 @@
                 <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:Duration" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1656,6 +1661,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d795d2f5-1cbf-45cb-9409-0dc909a94953}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="92e4be8c-5aca-45ec-8e17-deab1f90d7c8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="92b31412-8c8f-44f1-a883-141cef3f34cc" elementFormDefault="qualified">
@@ -1715,6 +1731,28 @@
         <xsd:restriction base="dms:Text">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4206cbd-ed67-49c0-b8a0-af32ee4f262e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1829,19 +1867,23 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="92e4be8c-5aca-45ec-8e17-deab1f90d7c8" xsi:nil="true"/>
     <Duration xmlns="92b31412-8c8f-44f1-a883-141cef3f34cc" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A81336-8D7F-4178-B44B-4BF143D3BA18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9194FD8F-CAD5-4096-85B7-3CA5F63B47FF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67E4577E-535A-4CE8-A03D-82BDB95C87B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCC736E-EF69-42B0-A5CD-3BFA55EC5C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F656EBF0-54F4-482F-BCA8-AD3ACAF2B632}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C4BB96-7ED1-49BB-A74F-81DD014A3532}"/>
 </file>